--- a/URS_Certifications-2.xlsx
+++ b/URS_Certifications-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263AF6EA-72A0-43CA-B797-36C21C9371FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162B26C8-F5A2-482B-B831-883FC217575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5652" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5732" uniqueCount="744">
   <si>
     <t>Название компании</t>
   </si>
@@ -1966,9 +1966,6 @@
     <t>ООО "АП "Взлет"</t>
   </si>
   <si>
-    <t>ООО "ВОЛЬТ-СПБ"</t>
-  </si>
-  <si>
     <t>АО "ГК "ЕКС"</t>
   </si>
   <si>
@@ -2180,6 +2177,102 @@
   </si>
   <si>
     <t>ППС</t>
+  </si>
+  <si>
+    <t>11.05.2025</t>
+  </si>
+  <si>
+    <t>СМТ</t>
+  </si>
+  <si>
+    <t>07.07.2027</t>
+  </si>
+  <si>
+    <t>Mir Valve</t>
+  </si>
+  <si>
+    <t>SND BHD</t>
+  </si>
+  <si>
+    <t>СДС АНО ИНТИ</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>21.12.2026</t>
+  </si>
+  <si>
+    <t>АэроИксия</t>
+  </si>
+  <si>
+    <t>Верейский механический завод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5030090040</t>
+  </si>
+  <si>
+    <t>06.12.2026</t>
+  </si>
+  <si>
+    <t>Виллина</t>
+  </si>
+  <si>
+    <t>НТЭ</t>
+  </si>
+  <si>
+    <t>08.12.2026</t>
+  </si>
+  <si>
+    <t>ТМС-групп</t>
+  </si>
+  <si>
+    <t>21.03.2027</t>
+  </si>
+  <si>
+    <t>Титан-Энерго</t>
+  </si>
+  <si>
+    <t>СтройСити</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5504168160</t>
+  </si>
+  <si>
+    <t>СРЗ</t>
+  </si>
+  <si>
+    <t>ПСА</t>
+  </si>
+  <si>
+    <t>25.04.2027</t>
+  </si>
+  <si>
+    <t>Лиман трейд</t>
+  </si>
+  <si>
+    <t>21.02.2027</t>
+  </si>
+  <si>
+    <t>ЗМК-Сибирь</t>
+  </si>
+  <si>
+    <t>22.02.2027</t>
+  </si>
+  <si>
+    <t>Б2Б центр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5034051080</t>
+  </si>
+  <si>
+    <t>SUFA Technology Indastry Co.</t>
+  </si>
+  <si>
+    <t>Ltd</t>
   </si>
 </sst>
 </file>
@@ -2513,10 +2606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1322"/>
+  <dimension ref="A1:G1340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1248" workbookViewId="0">
-      <selection activeCell="A1248" sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1284" workbookViewId="0">
+      <selection activeCell="C1288" sqref="C1288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2590,7 +2683,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -2610,7 +2703,7 @@
         <v>6345011371</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -2739,7 +2832,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -2751,7 +2844,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -2762,7 +2855,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -2771,7 +2864,7 @@
         <v>4632126284</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -2889,7 +2982,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>11</v>
@@ -2909,7 +3002,7 @@
         <v>3435900531</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
@@ -3024,10 +3117,10 @@
         <v>7801319747</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>11</v>
@@ -3096,7 +3189,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
@@ -3116,7 +3209,7 @@
         <v>6316039326</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
@@ -3188,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>11</v>
@@ -3208,7 +3301,7 @@
         <v>7601000632</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>13</v>
@@ -3254,7 +3347,7 @@
         <v>7601001509</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>13</v>
@@ -3280,7 +3373,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>11</v>
@@ -3300,7 +3393,7 @@
         <v>7601001509</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
@@ -3349,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>11</v>
@@ -3369,7 +3462,7 @@
         <v>5506007419</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>13</v>
@@ -3418,7 +3511,7 @@
         <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>11</v>
@@ -3438,7 +3531,7 @@
         <v>7601001509</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>13</v>
@@ -3484,7 +3577,7 @@
         <v>7601001509</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>13</v>
@@ -3510,7 +3603,7 @@
         <v>12</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>11</v>
@@ -3613,7 +3706,7 @@
         <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>11</v>
@@ -3633,7 +3726,7 @@
         <v>7325120984</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>13</v>
@@ -3725,7 +3818,7 @@
         <v>1651000027</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>13</v>
@@ -3751,7 +3844,7 @@
         <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>11</v>
@@ -3774,7 +3867,7 @@
         <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>11</v>
@@ -3794,7 +3887,7 @@
         <v>1651049488</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>13</v>
@@ -4349,7 +4442,7 @@
         <v>12</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>11</v>
@@ -4369,7 +4462,7 @@
         <v>1652005589</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>13</v>
@@ -4418,7 +4511,7 @@
         <v>12</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>11</v>
@@ -4438,7 +4531,7 @@
         <v>1639049837</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>13</v>
@@ -4464,7 +4557,7 @@
         <v>12</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>11</v>
@@ -4570,7 +4663,7 @@
         <v>12</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>11</v>
@@ -4616,7 +4709,7 @@
         <v>27</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>11</v>
@@ -4639,7 +4732,7 @@
         <v>12</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>11</v>
@@ -4682,7 +4775,7 @@
         <v>12</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>11</v>
@@ -4713,7 +4806,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>22</v>
@@ -4894,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>11</v>
@@ -4914,7 +5007,7 @@
         <v>4028000135</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>13</v>
@@ -4963,7 +5056,7 @@
         <v>12</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>11</v>
@@ -4983,7 +5076,7 @@
         <v>7302016874</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>13</v>
@@ -5006,7 +5099,7 @@
         <v>7805119555</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>10</v>
@@ -5032,7 +5125,7 @@
         <v>12</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>11</v>
@@ -5078,7 +5171,7 @@
         <v>12</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>11</v>
@@ -5098,7 +5191,7 @@
         <v>7724685256</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>13</v>
@@ -5167,7 +5260,7 @@
         <v>12</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>11</v>
@@ -5213,7 +5306,7 @@
         <v>12</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>11</v>
@@ -5233,7 +5326,7 @@
         <v>6311039749</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>13</v>
@@ -5273,7 +5366,7 @@
         <v>12</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>11</v>
@@ -5293,7 +5386,7 @@
         <v>1639021408</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>13</v>
@@ -5399,7 +5492,7 @@
         <v>12</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>11</v>
@@ -5502,7 +5595,7 @@
         <v>12</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>11</v>
@@ -5522,7 +5615,7 @@
         <v>6901091702</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>13</v>
@@ -5565,7 +5658,7 @@
         <v>6325033232</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>13</v>
@@ -5591,7 +5684,7 @@
         <v>12</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>11</v>
@@ -5611,7 +5704,7 @@
         <v>6325033232</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>11</v>
@@ -5634,7 +5727,7 @@
         <v>12</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>11</v>
@@ -5654,7 +5747,7 @@
         <v>6325051538</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>13</v>
@@ -5680,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>11</v>
@@ -5717,7 +5810,7 @@
         <v>12</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>11</v>
@@ -5786,7 +5879,7 @@
         <v>12</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>11</v>
@@ -5806,7 +5899,7 @@
         <v>4502000019</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>13</v>
@@ -5878,7 +5971,7 @@
         <v>12</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>11</v>
@@ -5924,7 +6017,7 @@
         <v>12</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>11</v>
@@ -5944,7 +6037,7 @@
         <v>5256090595</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>13</v>
@@ -5993,7 +6086,7 @@
         <v>12</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>11</v>
@@ -6013,7 +6106,7 @@
         <v>6455003006</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>13</v>
@@ -6059,7 +6152,7 @@
         <v>12</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>11</v>
@@ -6079,7 +6172,7 @@
         <v>1650206730</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>13</v>
@@ -6128,7 +6221,7 @@
         <v>12</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>11</v>
@@ -6148,7 +6241,7 @@
         <v>5248016686</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>13</v>
@@ -6197,7 +6290,7 @@
         <v>12</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>11</v>
@@ -6240,7 +6333,7 @@
         <v>4632167682</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>13</v>
@@ -6289,7 +6382,7 @@
         <v>12</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>11</v>
@@ -6309,7 +6402,7 @@
         <v>7602072407</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>13</v>
@@ -6358,7 +6451,7 @@
         <v>12</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>11</v>
@@ -6378,7 +6471,7 @@
         <v>7704659547</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>13</v>
@@ -6455,7 +6548,7 @@
         <v>12</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>11</v>
@@ -6475,7 +6568,7 @@
         <v>6321142880</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>13</v>
@@ -6524,7 +6617,7 @@
         <v>12</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>11</v>
@@ -6544,7 +6637,7 @@
         <v>4707040647</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>13</v>
@@ -6593,7 +6686,7 @@
         <v>12</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>11</v>
@@ -6613,7 +6706,7 @@
         <v>6322017578</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>13</v>
@@ -6662,7 +6755,7 @@
         <v>12</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>11</v>
@@ -6682,7 +6775,7 @@
         <v>4802011710</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>13</v>
@@ -6731,7 +6824,7 @@
         <v>12</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>11</v>
@@ -6916,7 +7009,7 @@
         <v>12</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>11</v>
@@ -6936,7 +7029,7 @@
         <v>3329064483</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>13</v>
@@ -7137,7 +7230,7 @@
         <v>12</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>11</v>
@@ -7157,7 +7250,7 @@
         <v>4703116239</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>13</v>
@@ -7171,7 +7264,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>78</v>
@@ -7194,7 +7287,7 @@
         <v>1651000041</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>10</v>
@@ -7217,7 +7310,7 @@
         <v>1651000041</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>13</v>
@@ -7243,7 +7336,7 @@
         <v>12</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>11</v>
@@ -7263,7 +7356,7 @@
         <v>6166053689</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>10</v>
@@ -7289,7 +7382,7 @@
         <v>12</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>11</v>
@@ -7309,7 +7402,7 @@
         <v>6166053689</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>13</v>
@@ -7352,7 +7445,7 @@
         <v>6321387343</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>11</v>
@@ -7389,7 +7482,7 @@
         <v>12</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>11</v>
@@ -7435,7 +7528,7 @@
         <v>12</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>11</v>
@@ -7455,7 +7548,7 @@
         <v>6321234611</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>13</v>
@@ -7501,7 +7594,7 @@
         <v>12</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>11</v>
@@ -7521,7 +7614,7 @@
         <v>3435991384</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>13</v>
@@ -7558,7 +7651,7 @@
         <v>6325022907</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>10</v>
@@ -7584,7 +7677,7 @@
         <v>12</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>11</v>
@@ -7630,7 +7723,7 @@
         <v>12</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>11</v>
@@ -7676,7 +7769,7 @@
         <v>12</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>11</v>
@@ -7696,7 +7789,7 @@
         <v>5256087440</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>13</v>
@@ -7768,7 +7861,7 @@
         <v>12</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>11</v>
@@ -7788,7 +7881,7 @@
         <v>6321255900</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>13</v>
@@ -7857,7 +7950,7 @@
         <v>3435701279</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>10</v>
@@ -7883,7 +7976,7 @@
         <v>12</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>11</v>
@@ -7980,7 +8073,7 @@
         <v>12</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>11</v>
@@ -8000,7 +8093,7 @@
         <v>5021012655</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>13</v>
@@ -8049,7 +8142,7 @@
         <v>12</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>11</v>
@@ -8118,7 +8211,7 @@
         <v>12</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>11</v>
@@ -8164,7 +8257,7 @@
         <v>12</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>11</v>
@@ -8184,7 +8277,7 @@
         <v>7329025851</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>13</v>
@@ -8233,7 +8326,7 @@
         <v>12</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>11</v>
@@ -8256,7 +8349,7 @@
         <v>12</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>11</v>
@@ -8325,7 +8418,7 @@
         <v>12</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>11</v>
@@ -8371,7 +8464,7 @@
         <v>12</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>11</v>
@@ -8474,7 +8567,7 @@
         <v>12</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>11</v>
@@ -8520,7 +8613,7 @@
         <v>12</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>11</v>
@@ -8589,7 +8682,7 @@
         <v>12</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>11</v>
@@ -8609,7 +8702,7 @@
         <v>1101300281</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>13</v>
@@ -8658,7 +8751,7 @@
         <v>12</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>11</v>
@@ -8704,7 +8797,7 @@
         <v>12</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>11</v>
@@ -8750,7 +8843,7 @@
         <v>12</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>11</v>
@@ -8796,7 +8889,7 @@
         <v>12</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>11</v>
@@ -8816,7 +8909,7 @@
         <v>6321095485</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>13</v>
@@ -8865,7 +8958,7 @@
         <v>12</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>11</v>
@@ -8911,7 +9004,7 @@
         <v>12</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>11</v>
@@ -8931,7 +9024,7 @@
         <v>7329007764</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>10</v>
@@ -8957,7 +9050,7 @@
         <v>12</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>11</v>
@@ -8980,7 +9073,7 @@
         <v>12</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>11</v>
@@ -9023,7 +9116,7 @@
         <v>6320010545</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>13</v>
@@ -9072,7 +9165,7 @@
         <v>12</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>11</v>
@@ -9141,7 +9234,7 @@
         <v>12</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>11</v>
@@ -9210,7 +9303,7 @@
         <v>12</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>11</v>
@@ -9230,7 +9323,7 @@
         <v>5027108811</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>13</v>
@@ -9325,7 +9418,7 @@
         <v>12</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>11</v>
@@ -9345,7 +9438,7 @@
         <v>2451000818</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>13</v>
@@ -9394,7 +9487,7 @@
         <v>12</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>11</v>
@@ -9440,7 +9533,7 @@
         <v>12</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>11</v>
@@ -9486,7 +9579,7 @@
         <v>12</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>11</v>
@@ -9532,7 +9625,7 @@
         <v>12</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>11</v>
@@ -9583,7 +9676,7 @@
         <v>12</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>11</v>
@@ -9668,7 +9761,7 @@
         <v>6321270514</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>13</v>
@@ -9691,7 +9784,7 @@
         <v>12</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>11</v>
@@ -9760,7 +9853,7 @@
         <v>12</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>11</v>
@@ -9780,7 +9873,7 @@
         <v>6234002318</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>13</v>
@@ -9866,7 +9959,7 @@
         <v>12</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>11</v>
@@ -9886,7 +9979,7 @@
         <v>1650180232</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>10</v>
@@ -9912,7 +10005,7 @@
         <v>12</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>11</v>
@@ -9958,7 +10051,7 @@
         <v>12</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>11</v>
@@ -10004,7 +10097,7 @@
         <v>12</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>11</v>
@@ -10024,7 +10117,7 @@
         <v>5260430734</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>13</v>
@@ -10047,7 +10140,7 @@
         <v>1655148546</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>10</v>
@@ -10073,7 +10166,7 @@
         <v>12</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>11</v>
@@ -10093,7 +10186,7 @@
         <v>1650077267</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>10</v>
@@ -10119,7 +10212,7 @@
         <v>12</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>11</v>
@@ -10139,7 +10232,7 @@
         <v>1650192492</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>10</v>
@@ -10165,7 +10258,7 @@
         <v>12</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G348" s="3">
         <v>45933</v>
@@ -10185,7 +10278,7 @@
         <v>12</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>11</v>
@@ -10205,7 +10298,7 @@
         <v>1660083125</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>10</v>
@@ -10231,7 +10324,7 @@
         <v>12</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>11</v>
@@ -10251,7 +10344,7 @@
         <v>1660141419</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>10</v>
@@ -10277,7 +10370,7 @@
         <v>12</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>11</v>
@@ -10297,7 +10390,7 @@
         <v>1660141419</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>13</v>
@@ -10369,7 +10462,7 @@
         <v>12</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>11</v>
@@ -10415,7 +10508,7 @@
         <v>12</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>11</v>
@@ -10435,7 +10528,7 @@
         <v>7735007358</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>13</v>
@@ -10458,10 +10551,10 @@
         <v>7735007358</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>11</v>
@@ -10507,7 +10600,7 @@
         <v>12</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>11</v>
@@ -10553,7 +10646,7 @@
         <v>12</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>11</v>
@@ -10622,7 +10715,7 @@
         <v>12</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>11</v>
@@ -10642,7 +10735,7 @@
         <v>1649010980</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>10</v>
@@ -10668,7 +10761,7 @@
         <v>12</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>11</v>
@@ -10679,7 +10772,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>22</v>
@@ -10702,7 +10795,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>22</v>
@@ -10714,7 +10807,7 @@
         <v>12</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>11</v>
@@ -10734,7 +10827,7 @@
         <v>1650339258</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>10</v>
@@ -10760,7 +10853,7 @@
         <v>12</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>11</v>
@@ -10829,7 +10922,7 @@
         <v>12</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>11</v>
@@ -10875,7 +10968,7 @@
         <v>12</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>11</v>
@@ -10889,7 +10982,7 @@
         <v>203</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>10</v>
@@ -10906,7 +10999,7 @@
         <v>203</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>13</v>
@@ -10926,7 +11019,7 @@
         <v>12</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>11</v>
@@ -10992,7 +11085,7 @@
         <v>1650306566</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>10</v>
@@ -11018,7 +11111,7 @@
         <v>12</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>11</v>
@@ -11064,7 +11157,7 @@
         <v>12</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>11</v>
@@ -11084,7 +11177,7 @@
         <v>1650248931</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>13</v>
@@ -11107,7 +11200,7 @@
         <v>3306007697</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>13</v>
@@ -11133,7 +11226,7 @@
         <v>12</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>11</v>
@@ -11179,7 +11272,7 @@
         <v>12</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>11</v>
@@ -11199,7 +11292,7 @@
         <v>1674005208</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>13</v>
@@ -11248,7 +11341,7 @@
         <v>12</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>11</v>
@@ -11294,7 +11387,7 @@
         <v>12</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>11</v>
@@ -11340,7 +11433,7 @@
         <v>12</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>11</v>
@@ -11360,7 +11453,7 @@
         <v>7719539002</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>13</v>
@@ -11409,7 +11502,7 @@
         <v>12</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>11</v>
@@ -11544,7 +11637,7 @@
         <v>4025004815</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>11</v>
@@ -11561,7 +11654,7 @@
         <v>4025004815</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>13</v>
@@ -11710,7 +11803,7 @@
         <v>7817034384</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E417" s="2" t="s">
         <v>13</v>
@@ -11736,7 +11829,7 @@
         <v>12</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>11</v>
@@ -11782,7 +11875,7 @@
         <v>12</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>11</v>
@@ -11828,7 +11921,7 @@
         <v>12</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>11</v>
@@ -11871,7 +11964,7 @@
         <v>7325057468</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>10</v>
@@ -11897,7 +11990,7 @@
         <v>12</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>11</v>
@@ -11917,7 +12010,7 @@
         <v>7325057468</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>13</v>
@@ -12049,7 +12142,7 @@
         <v>12</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>11</v>
@@ -12069,7 +12162,7 @@
         <v>1651091962</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>13</v>
@@ -12302,7 +12395,7 @@
         <v>12</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>11</v>
@@ -12322,7 +12415,7 @@
         <v>6323111661</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>13</v>
@@ -12382,7 +12475,7 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>22</v>
@@ -12405,7 +12498,7 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>22</v>
@@ -12417,7 +12510,7 @@
         <v>12</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>11</v>
@@ -12428,7 +12521,7 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>22</v>
@@ -12437,7 +12530,7 @@
         <v>7804522306</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>13</v>
@@ -12486,7 +12579,7 @@
         <v>12</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>11</v>
@@ -12506,7 +12599,7 @@
         <v>9717084988</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>13</v>
@@ -12555,7 +12648,7 @@
         <v>12</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>11</v>
@@ -12575,7 +12668,7 @@
         <v>6684011136</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>13</v>
@@ -12601,7 +12694,7 @@
         <v>12</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>11</v>
@@ -12621,7 +12714,7 @@
         <v>1327153649</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>13</v>
@@ -12644,7 +12737,7 @@
         <v>7415060560</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>10</v>
@@ -12713,7 +12806,7 @@
         <v>5904159516</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>10</v>
@@ -12739,7 +12832,7 @@
         <v>12</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>11</v>
@@ -12759,7 +12852,7 @@
         <v>5904159516</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>13</v>
@@ -12805,7 +12898,7 @@
         <v>3661057900</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>10</v>
@@ -12828,7 +12921,7 @@
         <v>12</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>11</v>
@@ -12848,7 +12941,7 @@
         <v>3661057900</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>13</v>
@@ -12943,7 +13036,7 @@
         <v>12</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>11</v>
@@ -12963,7 +13056,7 @@
         <v>7701583410</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>13</v>
@@ -13012,7 +13105,7 @@
         <v>12</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>11</v>
@@ -13032,7 +13125,7 @@
         <v>3128000673</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>13</v>
@@ -13081,7 +13174,7 @@
         <v>12</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>11</v>
@@ -13101,7 +13194,7 @@
         <v>6234098539</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E479" s="2" t="s">
         <v>13</v>
@@ -13173,7 +13266,7 @@
         <v>12</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>11</v>
@@ -13265,7 +13358,7 @@
         <v>12</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>11</v>
@@ -13285,7 +13378,7 @@
         <v>7329023043</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E487" s="2" t="s">
         <v>10</v>
@@ -13311,7 +13404,7 @@
         <v>12</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>11</v>
@@ -13354,7 +13447,7 @@
         <v>5703008860</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E490" s="2" t="s">
         <v>10</v>
@@ -13377,7 +13470,7 @@
         <v>5703008860</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E491" s="2" t="s">
         <v>13</v>
@@ -13403,7 +13496,7 @@
         <v>12</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>11</v>
@@ -13414,7 +13507,7 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>22</v>
@@ -13423,7 +13516,7 @@
         <v>7726291497</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E493" s="2" t="s">
         <v>10</v>
@@ -13437,7 +13530,7 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>22</v>
@@ -13446,7 +13539,7 @@
         <v>7726291497</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E494" s="2" t="s">
         <v>13</v>
@@ -13460,7 +13553,7 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>22</v>
@@ -13472,7 +13565,7 @@
         <v>12</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>11</v>
@@ -13515,7 +13608,7 @@
         <v>2904009346</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E497" s="2" t="s">
         <v>10</v>
@@ -13541,7 +13634,7 @@
         <v>12</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>11</v>
@@ -13572,7 +13665,7 @@
         <v>252</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>13</v>
@@ -13621,7 +13714,7 @@
         <v>12</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>11</v>
@@ -13641,7 +13734,7 @@
         <v>1655217729</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>10</v>
@@ -13667,7 +13760,7 @@
         <v>12</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>11</v>
@@ -13727,7 +13820,7 @@
         <v>12</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>11</v>
@@ -13747,7 +13840,7 @@
         <v>6382060673</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>13</v>
@@ -13796,7 +13889,7 @@
         <v>12</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>11</v>
@@ -13839,7 +13932,7 @@
         <v>7816485433</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>10</v>
@@ -13865,7 +13958,7 @@
         <v>12</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>11</v>
@@ -13991,7 +14084,7 @@
         <v>1327029970</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E519" s="2" t="s">
         <v>10</v>
@@ -14017,7 +14110,7 @@
         <v>12</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>11</v>
@@ -14037,7 +14130,7 @@
         <v>1327029970</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>13</v>
@@ -14106,7 +14199,7 @@
         <v>1648047353</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>10</v>
@@ -14132,7 +14225,7 @@
         <v>12</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>11</v>
@@ -14224,7 +14317,7 @@
         <v>12</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>11</v>
@@ -14244,7 +14337,7 @@
         <v>3663002167</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>13</v>
@@ -14267,7 +14360,7 @@
         <v>1651000010</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>13</v>
@@ -14293,7 +14386,7 @@
         <v>12</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>11</v>
@@ -14362,7 +14455,7 @@
         <v>12</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>11</v>
@@ -14382,7 +14475,7 @@
         <v>7703644467</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>10</v>
@@ -14408,7 +14501,7 @@
         <v>12</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>11</v>
@@ -14428,7 +14521,7 @@
         <v>6320044311</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>10</v>
@@ -14454,7 +14547,7 @@
         <v>12</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F539" s="2" t="s">
         <v>11</v>
@@ -14474,7 +14567,7 @@
         <v>6320044311</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>13</v>
@@ -14517,7 +14610,7 @@
         <v>12</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F542" s="2" t="s">
         <v>11</v>
@@ -14537,7 +14630,7 @@
         <v>7806531031</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>13</v>
@@ -14689,7 +14782,7 @@
         <v>7415060560</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E550" s="2" t="s">
         <v>14</v>
@@ -14735,7 +14828,7 @@
         <v>7415060560</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E552" s="2" t="s">
         <v>24</v>
@@ -14758,7 +14851,7 @@
         <v>4707023842</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E553" s="2" t="s">
         <v>13</v>
@@ -14784,7 +14877,7 @@
         <v>12</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F554" s="2" t="s">
         <v>11</v>
@@ -14827,7 +14920,7 @@
         <v>7448180158</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E556" s="2" t="s">
         <v>10</v>
@@ -14876,7 +14969,7 @@
         <v>12</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F558" s="2" t="s">
         <v>11</v>
@@ -14896,7 +14989,7 @@
         <v>7415003234</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>13</v>
@@ -15218,7 +15311,7 @@
         <v>7448180158</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E573" s="2" t="s">
         <v>14</v>
@@ -15324,7 +15417,7 @@
         <v>7448180158</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>24</v>
@@ -15347,10 +15440,10 @@
         <v>6325068130</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F579" s="2" t="s">
         <v>11</v>
@@ -15370,10 +15463,10 @@
         <v>6325059907</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E580" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F580" s="2" t="s">
         <v>11</v>
@@ -15393,7 +15486,7 @@
         <v>7804660183</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>295</v>
@@ -15798,10 +15891,10 @@
         <v>4707023842</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E599" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F599" s="2" t="s">
         <v>11</v>
@@ -15916,7 +16009,7 @@
         <v>12</v>
       </c>
       <c r="E604" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F604" s="2" t="s">
         <v>11</v>
@@ -15939,7 +16032,7 @@
         <v>12</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F605" s="2" t="s">
         <v>11</v>
@@ -16031,7 +16124,7 @@
         <v>12</v>
       </c>
       <c r="E609" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F609" s="2" t="s">
         <v>11</v>
@@ -16226,10 +16319,10 @@
         <v>4707023842</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F618" s="2" t="s">
         <v>11</v>
@@ -16309,7 +16402,7 @@
         <v>6322004339</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E622" s="2" t="s">
         <v>13</v>
@@ -16349,7 +16442,7 @@
         <v>12</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F624" s="2" t="s">
         <v>11</v>
@@ -16369,7 +16462,7 @@
         <v>6315626314</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E625" s="2" t="s">
         <v>13</v>
@@ -16461,7 +16554,7 @@
         <v>7325097407</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E629" s="2" t="s">
         <v>10</v>
@@ -16510,7 +16603,7 @@
         <v>12</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F631" s="2" t="s">
         <v>11</v>
@@ -16530,7 +16623,7 @@
         <v>7325097407</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E632" s="2" t="s">
         <v>13</v>
@@ -16625,7 +16718,7 @@
         <v>12</v>
       </c>
       <c r="E636" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F636" s="2" t="s">
         <v>11</v>
@@ -16756,7 +16849,7 @@
         <v>5259018011</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E643" s="2" t="s">
         <v>44</v>
@@ -16779,7 +16872,7 @@
         <v>7841340350</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E644" s="2" t="s">
         <v>328</v>
@@ -16802,7 +16895,7 @@
         <v>6037008575</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E645" s="2" t="s">
         <v>295</v>
@@ -16851,7 +16944,7 @@
         <v>12</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F647" s="2" t="s">
         <v>11</v>
@@ -17369,10 +17462,10 @@
         <v>266023912</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E675" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F675" s="2" t="s">
         <v>11</v>
@@ -17392,10 +17485,10 @@
         <v>266023912</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E676" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F676" s="2" t="s">
         <v>11</v>
@@ -17704,7 +17797,7 @@
         <v>12</v>
       </c>
       <c r="E691" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F691" s="2" t="s">
         <v>11</v>
@@ -18667,7 +18760,7 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A742" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E742" s="2" t="s">
         <v>10</v>
@@ -18681,7 +18774,7 @@
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A743" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E743" s="2" t="s">
         <v>14</v>
@@ -18695,7 +18788,7 @@
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A744" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E744" s="2" t="s">
         <v>24</v>
@@ -19971,7 +20064,7 @@
         <v>12</v>
       </c>
       <c r="E824" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F824" s="2" t="s">
         <v>11</v>
@@ -19991,7 +20084,7 @@
         <v>6321007249</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E825" s="2" t="s">
         <v>13</v>
@@ -20244,7 +20337,7 @@
         <v>12</v>
       </c>
       <c r="E839" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F839" s="2" t="s">
         <v>11</v>
@@ -20750,7 +20843,7 @@
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A867" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E867" s="2" t="s">
         <v>57</v>
@@ -21855,7 +21948,7 @@
         <v>12</v>
       </c>
       <c r="E935" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F935" s="2" t="s">
         <v>11</v>
@@ -21875,7 +21968,7 @@
         <v>2465102746</v>
       </c>
       <c r="D936" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E936" s="2" t="s">
         <v>13</v>
@@ -22359,7 +22452,7 @@
         <v>12</v>
       </c>
       <c r="E968" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F968" s="2" t="s">
         <v>11</v>
@@ -22544,7 +22637,7 @@
     </row>
     <row r="978" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A978" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E978" s="2" t="s">
         <v>10</v>
@@ -22558,7 +22651,7 @@
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A979" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E979" s="2" t="s">
         <v>82</v>
@@ -22677,7 +22770,7 @@
         <v>5248023242</v>
       </c>
       <c r="D986" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E986" s="2" t="s">
         <v>13</v>
@@ -22703,7 +22796,7 @@
         <v>12</v>
       </c>
       <c r="E987" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F987" s="2" t="s">
         <v>11</v>
@@ -23310,7 +23403,7 @@
         <v>12</v>
       </c>
       <c r="E1025" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1025" s="2" t="s">
         <v>11</v>
@@ -23501,7 +23594,7 @@
         <v>7805541005</v>
       </c>
       <c r="D1035" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1035" s="2" t="s">
         <v>13</v>
@@ -23527,7 +23620,7 @@
         <v>12</v>
       </c>
       <c r="E1036" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1036" s="2" t="s">
         <v>11</v>
@@ -23974,7 +24067,7 @@
         <v>5256105516</v>
       </c>
       <c r="D1063" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1063" s="2" t="s">
         <v>13</v>
@@ -24000,7 +24093,7 @@
         <v>12</v>
       </c>
       <c r="E1064" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1064" s="2" t="s">
         <v>11</v>
@@ -24031,10 +24124,10 @@
         <v>5920016900</v>
       </c>
       <c r="D1066" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E1066" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1066" s="2" t="s">
         <v>11</v>
@@ -24054,7 +24147,7 @@
         <v>5920016900</v>
       </c>
       <c r="D1067" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1067" s="2" t="s">
         <v>13</v>
@@ -24184,7 +24277,7 @@
         <v>7714490949</v>
       </c>
       <c r="D1075" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1075" s="2" t="s">
         <v>13</v>
@@ -24462,7 +24555,7 @@
         <v>3900005663</v>
       </c>
       <c r="D1088" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1088" s="2" t="s">
         <v>549</v>
@@ -24485,7 +24578,7 @@
         <v>3900005663</v>
       </c>
       <c r="D1089" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1089" s="2" t="s">
         <v>10</v>
@@ -24508,7 +24601,7 @@
         <v>3900005663</v>
       </c>
       <c r="D1090" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1090" s="2" t="s">
         <v>14</v>
@@ -24531,7 +24624,7 @@
         <v>3900005663</v>
       </c>
       <c r="D1091" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1091" s="2" t="s">
         <v>24</v>
@@ -24844,7 +24937,7 @@
         <v>12</v>
       </c>
       <c r="E1108" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1108" s="2" t="s">
         <v>11</v>
@@ -24864,7 +24957,7 @@
         <v>6684040828</v>
       </c>
       <c r="D1109" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1109" s="2" t="s">
         <v>13</v>
@@ -24946,10 +25039,10 @@
         <v>6684040828</v>
       </c>
       <c r="D1114" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1114" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F1114" s="2" t="s">
         <v>11</v>
@@ -25179,10 +25272,10 @@
         <v>4825041742</v>
       </c>
       <c r="D1127" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1127" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F1127" s="2" t="s">
         <v>11</v>
@@ -25202,10 +25295,10 @@
         <v>4825041742</v>
       </c>
       <c r="D1128" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1128" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F1128" s="2" t="s">
         <v>11</v>
@@ -25273,7 +25366,7 @@
         <v>12</v>
       </c>
       <c r="E1132" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1132" s="2" t="s">
         <v>11</v>
@@ -25341,7 +25434,7 @@
         <v>12</v>
       </c>
       <c r="E1136" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1136" s="2" t="s">
         <v>11</v>
@@ -25490,7 +25583,7 @@
     </row>
     <row r="1143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1143" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E1143" s="2" t="s">
         <v>10</v>
@@ -25570,10 +25663,10 @@
         <v>4825041742</v>
       </c>
       <c r="D1147" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1147" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F1147" s="2" t="s">
         <v>11</v>
@@ -25654,7 +25747,7 @@
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1153" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E1153" s="2" t="s">
         <v>24</v>
@@ -25849,7 +25942,7 @@
         <v>584</v>
       </c>
       <c r="D1165" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1165" s="2" t="s">
         <v>13</v>
@@ -25891,7 +25984,7 @@
     </row>
     <row r="1168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1168" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E1168" s="2" t="s">
         <v>10</v>
@@ -25914,7 +26007,7 @@
         <v>7816659619</v>
       </c>
       <c r="D1169" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1169" s="2" t="s">
         <v>589</v>
@@ -25937,10 +26030,10 @@
         <v>7816659619</v>
       </c>
       <c r="D1170" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1170" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F1170" s="2" t="s">
         <v>11</v>
@@ -25963,7 +26056,7 @@
         <v>12</v>
       </c>
       <c r="E1171" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1171" s="2" t="s">
         <v>11</v>
@@ -25983,7 +26076,7 @@
         <v>2465072918</v>
       </c>
       <c r="D1172" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1172" s="2" t="s">
         <v>13</v>
@@ -26009,7 +26102,7 @@
         <v>12</v>
       </c>
       <c r="E1173" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1173" s="2" t="s">
         <v>11</v>
@@ -26029,7 +26122,7 @@
         <v>3803100054</v>
       </c>
       <c r="D1174" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1174" s="2" t="s">
         <v>13</v>
@@ -26055,7 +26148,7 @@
         <v>12</v>
       </c>
       <c r="E1175" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1175" s="2" t="s">
         <v>11</v>
@@ -26075,7 +26168,7 @@
         <v>1902014500</v>
       </c>
       <c r="D1176" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1176" s="2" t="s">
         <v>13</v>
@@ -26101,7 +26194,7 @@
         <v>12</v>
       </c>
       <c r="E1177" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1177" s="2" t="s">
         <v>11</v>
@@ -26121,7 +26214,7 @@
         <v>4221000535</v>
       </c>
       <c r="D1178" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1178" s="2" t="s">
         <v>13</v>
@@ -26147,7 +26240,7 @@
         <v>12</v>
       </c>
       <c r="E1179" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1179" s="2" t="s">
         <v>11</v>
@@ -26167,7 +26260,7 @@
         <v>2465000141</v>
       </c>
       <c r="D1180" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1180" s="2" t="s">
         <v>13</v>
@@ -26193,7 +26286,7 @@
         <v>12</v>
       </c>
       <c r="E1181" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1181" s="2" t="s">
         <v>11</v>
@@ -26213,7 +26306,7 @@
         <v>3803100054</v>
       </c>
       <c r="D1182" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1182" s="2" t="s">
         <v>13</v>
@@ -26236,7 +26329,7 @@
         <v>7816659619</v>
       </c>
       <c r="D1183" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1183" s="2" t="s">
         <v>17</v>
@@ -26320,7 +26413,7 @@
     </row>
     <row r="1189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1189" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E1189" s="2" t="s">
         <v>24</v>
@@ -26334,7 +26427,7 @@
     </row>
     <row r="1190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1190" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E1190" s="2" t="s">
         <v>10</v>
@@ -26539,7 +26632,7 @@
     </row>
     <row r="1204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1204" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E1204" s="2" t="s">
         <v>10</v>
@@ -26553,7 +26646,7 @@
     </row>
     <row r="1205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1205" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E1205" s="2" t="s">
         <v>14</v>
@@ -26567,7 +26660,7 @@
     </row>
     <row r="1206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1206" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E1206" s="2" t="s">
         <v>24</v>
@@ -27398,6 +27491,9 @@
       <c r="B1259" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C1259" s="2">
+        <v>3702015155</v>
+      </c>
       <c r="D1259" s="2" t="s">
         <v>18</v>
       </c>
@@ -27418,6 +27514,9 @@
       <c r="B1260" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C1260" s="2">
+        <v>4029033510</v>
+      </c>
       <c r="D1260" s="2" t="s">
         <v>18</v>
       </c>
@@ -27438,6 +27537,9 @@
       <c r="B1261" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C1261" s="2">
+        <v>7707666430</v>
+      </c>
       <c r="D1261" s="2" t="s">
         <v>18</v>
       </c>
@@ -27458,6 +27560,9 @@
       <c r="B1262" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C1262" s="2">
+        <v>3315095756</v>
+      </c>
       <c r="D1262" s="2" t="s">
         <v>18</v>
       </c>
@@ -27478,6 +27583,9 @@
       <c r="B1263" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C1263" s="2">
+        <v>7732018418</v>
+      </c>
       <c r="D1263" s="2" t="s">
         <v>18</v>
       </c>
@@ -27493,31 +27601,37 @@
     </row>
     <row r="1264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1264" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B1264" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C1264" s="2">
+        <v>7707666430</v>
       </c>
       <c r="D1264" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E1264" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1264" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1264" s="3">
-        <v>45832</v>
+      <c r="G1264" s="2" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="1265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1265" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B1265" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C1265" s="2">
+        <v>5012000639</v>
+      </c>
       <c r="D1265" s="2" t="s">
         <v>18</v>
       </c>
@@ -27533,10 +27647,13 @@
     </row>
     <row r="1266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1266" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B1266" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C1266" s="2">
+        <v>1306000137</v>
       </c>
       <c r="D1266" s="2" t="s">
         <v>18</v>
@@ -27553,10 +27670,13 @@
     </row>
     <row r="1267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1267" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B1267" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C1267" s="2">
+        <v>5260080007</v>
       </c>
       <c r="D1267" s="2" t="s">
         <v>18</v>
@@ -27573,10 +27693,13 @@
     </row>
     <row r="1268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1268" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B1268" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C1268" s="2">
+        <v>6324002055</v>
       </c>
       <c r="D1268" s="2" t="s">
         <v>18</v>
@@ -27593,11 +27716,14 @@
     </row>
     <row r="1269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1269" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B1269" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="C1269" s="2">
+        <v>2224130666</v>
+      </c>
       <c r="D1269" s="2" t="s">
         <v>18</v>
       </c>
@@ -27613,10 +27739,13 @@
     </row>
     <row r="1270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1270" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B1270" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C1270" s="2">
+        <v>7715350670</v>
       </c>
       <c r="D1270" s="2" t="s">
         <v>18</v>
@@ -27633,10 +27762,13 @@
     </row>
     <row r="1271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1271" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B1271" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C1271" s="2">
+        <v>1841064861</v>
       </c>
       <c r="D1271" s="2" t="s">
         <v>18</v>
@@ -27653,10 +27785,13 @@
     </row>
     <row r="1272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1272" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B1272" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C1272" s="2">
+        <v>7724187733</v>
       </c>
       <c r="D1272" s="2" t="s">
         <v>18</v>
@@ -27673,11 +27808,14 @@
     </row>
     <row r="1273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1273" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B1273" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C1273" s="2">
+        <v>6612000551</v>
+      </c>
       <c r="D1273" s="2" t="s">
         <v>18</v>
       </c>
@@ -27693,10 +27831,13 @@
     </row>
     <row r="1274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1274" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B1274" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C1274" s="2">
+        <v>4501124406</v>
       </c>
       <c r="D1274" s="2" t="s">
         <v>18</v>
@@ -27713,10 +27854,13 @@
     </row>
     <row r="1275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1275" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B1275" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C1275" s="2">
+        <v>7839418049</v>
       </c>
       <c r="D1275" s="2" t="s">
         <v>18</v>
@@ -27733,10 +27877,13 @@
     </row>
     <row r="1276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1276" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B1276" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C1276" s="2">
+        <v>7719193993</v>
       </c>
       <c r="D1276" s="2" t="s">
         <v>18</v>
@@ -27753,10 +27900,13 @@
     </row>
     <row r="1277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1277" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B1277" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C1277" s="2">
+        <v>7743790249</v>
       </c>
       <c r="D1277" s="2" t="s">
         <v>18</v>
@@ -27770,7 +27920,7 @@
     </row>
     <row r="1278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1278" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B1278" s="2" t="s">
         <v>22</v>
@@ -27793,7 +27943,7 @@
     </row>
     <row r="1279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1279" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B1279" s="2" t="s">
         <v>22</v>
@@ -27813,7 +27963,7 @@
     </row>
     <row r="1280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1280" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B1280" s="2" t="s">
         <v>22</v>
@@ -27833,7 +27983,7 @@
     </row>
     <row r="1281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1281" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B1281" s="2" t="s">
         <v>22</v>
@@ -27856,7 +28006,7 @@
         <v>632</v>
       </c>
       <c r="E1282" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F1282" s="2" t="s">
         <v>633</v>
@@ -27867,7 +28017,7 @@
     </row>
     <row r="1283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1283" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B1283" s="2" t="s">
         <v>8</v>
@@ -27890,7 +28040,7 @@
     </row>
     <row r="1284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1284" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B1284" s="2" t="s">
         <v>22</v>
@@ -27913,7 +28063,7 @@
     </row>
     <row r="1285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1285" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B1285" s="2" t="s">
         <v>22</v>
@@ -27925,7 +28075,7 @@
         <v>12</v>
       </c>
       <c r="E1285" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1285" s="2" t="s">
         <v>11</v>
@@ -27936,7 +28086,7 @@
     </row>
     <row r="1286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1286" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B1286" s="2" t="s">
         <v>8</v>
@@ -27959,7 +28109,7 @@
     </row>
     <row r="1287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1287" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B1287" s="2" t="s">
         <v>8</v>
@@ -27971,7 +28121,7 @@
         <v>12</v>
       </c>
       <c r="E1287" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1287" s="2" t="s">
         <v>11</v>
@@ -27982,7 +28132,7 @@
     </row>
     <row r="1288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1288" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B1288" s="2" t="s">
         <v>22</v>
@@ -28005,7 +28155,7 @@
     </row>
     <row r="1289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1289" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B1289" s="2" t="s">
         <v>22</v>
@@ -28028,7 +28178,7 @@
     </row>
     <row r="1290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1290" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E1290" s="2" t="s">
         <v>10</v>
@@ -28039,7 +28189,7 @@
     </row>
     <row r="1291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1291" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B1291" s="2" t="s">
         <v>22</v>
@@ -28062,7 +28212,7 @@
     </row>
     <row r="1292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1292" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B1292" s="2" t="s">
         <v>22</v>
@@ -28085,7 +28235,7 @@
     </row>
     <row r="1293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1293" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E1293" s="2" t="s">
         <v>10</v>
@@ -28099,7 +28249,7 @@
     </row>
     <row r="1294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1294" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E1294" s="2" t="s">
         <v>10</v>
@@ -28126,7 +28276,7 @@
     </row>
     <row r="1297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1297" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E1297" s="2" t="s">
         <v>44</v>
@@ -28137,7 +28287,7 @@
     </row>
     <row r="1298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1298" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E1298" s="2" t="s">
         <v>82</v>
@@ -28151,7 +28301,7 @@
     </row>
     <row r="1299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1299" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B1299" s="2" t="s">
         <v>22</v>
@@ -28174,7 +28324,7 @@
     </row>
     <row r="1300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1300" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B1300" s="2" t="s">
         <v>22</v>
@@ -28197,7 +28347,7 @@
     </row>
     <row r="1301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1301" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B1301" s="2" t="s">
         <v>22</v>
@@ -28220,7 +28370,7 @@
     </row>
     <row r="1302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1302" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B1302" s="2" t="s">
         <v>22</v>
@@ -28232,7 +28382,7 @@
         <v>12</v>
       </c>
       <c r="E1302" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1302" s="2" t="s">
         <v>11</v>
@@ -28243,7 +28393,7 @@
     </row>
     <row r="1303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1303" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B1303" s="2" t="s">
         <v>22</v>
@@ -28266,7 +28416,7 @@
     </row>
     <row r="1304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1304" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B1304" s="2" t="s">
         <v>22</v>
@@ -28289,7 +28439,7 @@
     </row>
     <row r="1305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1305" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B1305" s="2" t="s">
         <v>22</v>
@@ -28326,7 +28476,7 @@
         <v>10</v>
       </c>
       <c r="F1307" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G1307" s="3">
         <v>46654</v>
@@ -28334,7 +28484,7 @@
     </row>
     <row r="1308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1308" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B1308" s="2" t="s">
         <v>22</v>
@@ -28357,7 +28507,7 @@
     </row>
     <row r="1309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1309" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B1309" s="2" t="s">
         <v>22</v>
@@ -28397,7 +28547,7 @@
     </row>
     <row r="1311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1311" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1311" s="2" t="s">
         <v>22</v>
@@ -28417,7 +28567,7 @@
         <v>10</v>
       </c>
       <c r="F1312" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G1312" s="3">
         <v>45574</v>
@@ -28425,7 +28575,7 @@
     </row>
     <row r="1313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1313" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1313" s="2" t="s">
         <v>22</v>
@@ -28445,7 +28595,7 @@
     </row>
     <row r="1314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1314" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1314" s="2" t="s">
         <v>22</v>
@@ -28465,7 +28615,7 @@
     </row>
     <row r="1315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1315" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B1315" s="2" t="s">
         <v>22</v>
@@ -28485,7 +28635,7 @@
     </row>
     <row r="1316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1316" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B1316" s="2" t="s">
         <v>8</v>
@@ -28505,7 +28655,7 @@
     </row>
     <row r="1317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1317" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B1317" s="2" t="s">
         <v>8</v>
@@ -28525,7 +28675,7 @@
     </row>
     <row r="1318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1318" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B1318" s="2" t="s">
         <v>22</v>
@@ -28542,7 +28692,7 @@
     </row>
     <row r="1319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1319" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B1319" s="2" t="s">
         <v>22</v>
@@ -28559,7 +28709,7 @@
     </row>
     <row r="1320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1320" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B1320" s="2" t="s">
         <v>22</v>
@@ -28576,10 +28726,10 @@
     </row>
     <row r="1321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1321" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1321" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="B1321" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="E1321" s="2" t="s">
         <v>10</v>
@@ -28590,7 +28740,7 @@
     </row>
     <row r="1322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1322" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B1322" s="2" t="s">
         <v>26</v>
@@ -28602,13 +28752,314 @@
         <v>12</v>
       </c>
       <c r="E1322" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G1322" s="3">
         <v>45870</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1324" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1324" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1324" s="2">
+        <v>7838510490</v>
+      </c>
+      <c r="D1324" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1324" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1324" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1324" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1325" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1325" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1325" s="2">
+        <v>1828007328</v>
+      </c>
+      <c r="D1325" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1325" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1325" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1326" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1326" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1326" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1326" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="G1326" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1327" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1327" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1327" s="2">
+        <v>3257017280</v>
+      </c>
+      <c r="D1327" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1327" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E1328" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1328" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1329" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B1329" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1329" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1329" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1329" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1329" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1330" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1330" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1330" s="2">
+        <v>5834052005</v>
+      </c>
+      <c r="D1330" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1330" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1331" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1331" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1331" s="2">
+        <v>7733660353</v>
+      </c>
+      <c r="D1331" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1331" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1331" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1332" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B1332" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1332" s="2">
+        <v>1644034949</v>
+      </c>
+      <c r="D1332" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1332" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1332" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1333" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B1333" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1333" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1333" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1334" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B1334" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1334" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D1334" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1334" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1335" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B1335" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1335" s="2">
+        <v>6317126596</v>
+      </c>
+      <c r="D1335" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1335" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1336" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B1336" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1336" s="2">
+        <v>7017462729</v>
+      </c>
+      <c r="D1336" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1336" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1336" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1337" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B1337" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1337" s="2">
+        <v>7811438750</v>
+      </c>
+      <c r="D1337" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1337" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1337" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1338" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1338" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1338" s="2">
+        <v>5505217893</v>
+      </c>
+      <c r="D1338" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1338" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1338" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1339" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B1339" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1339" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1339" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1339" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1340" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1340" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1340" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1340" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/URS_Certifications-2.xlsx
+++ b/URS_Certifications-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162B26C8-F5A2-482B-B831-883FC217575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A19988-CB8D-4EC4-A56B-BF69C3C5604F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5732" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5743" uniqueCount="749">
   <si>
     <t>Название компании</t>
   </si>
@@ -2273,6 +2273,21 @@
   </si>
   <si>
     <t>Ltd</t>
+  </si>
+  <si>
+    <t>17.04.2026</t>
+  </si>
+  <si>
+    <t>14.05.2027</t>
+  </si>
+  <si>
+    <t>СП ММП</t>
+  </si>
+  <si>
+    <t>Уральский институт сварки - металлургия</t>
+  </si>
+  <si>
+    <t>Производстеный комплекс Нижнетагильский машиностроительный завод</t>
   </si>
 </sst>
 </file>
@@ -2608,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1284" workbookViewId="0">
-      <selection activeCell="C1288" sqref="C1288"/>
+    <sheetView tabSelected="1" topLeftCell="A872" workbookViewId="0">
+      <selection activeCell="D887" sqref="D887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21238,94 +21253,118 @@
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A888" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B888" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C888" s="2">
-        <v>5837005613</v>
-      </c>
-      <c r="D888" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E888" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F888" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G888" s="2" t="e">
-        <v>#REF!</v>
+      <c r="A888" t="s">
+        <v>469</v>
+      </c>
+      <c r="B888" t="s">
+        <v>8</v>
+      </c>
+      <c r="C888">
+        <v>7708709686</v>
+      </c>
+      <c r="D888" t="s">
+        <v>9</v>
+      </c>
+      <c r="E888" t="s">
+        <v>10</v>
+      </c>
+      <c r="F888" t="s">
+        <v>11</v>
+      </c>
+      <c r="G888" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A889" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B889" s="2" t="s">
+      <c r="A889" t="s">
+        <v>470</v>
+      </c>
+      <c r="B889" t="s">
         <v>8</v>
       </c>
-      <c r="C889" s="2">
-        <v>7708709686</v>
-      </c>
-      <c r="D889" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E889" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F889" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G889" s="3">
-        <v>46129</v>
+      <c r="C889">
+        <v>6660016255</v>
+      </c>
+      <c r="D889" t="s">
+        <v>9</v>
+      </c>
+      <c r="E889" t="s">
+        <v>10</v>
+      </c>
+      <c r="F889" t="s">
+        <v>11</v>
+      </c>
+      <c r="G889" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A890" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B890" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C890" s="2">
-        <v>6660016255</v>
-      </c>
-      <c r="D890" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E890" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F890" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G890" s="3">
-        <v>46521</v>
+      <c r="A890" t="s">
+        <v>746</v>
+      </c>
+      <c r="B890" t="s">
+        <v>22</v>
+      </c>
+      <c r="C890">
+        <v>6686024229</v>
+      </c>
+      <c r="D890" t="s">
+        <v>9</v>
+      </c>
+      <c r="E890" t="s">
+        <v>10</v>
+      </c>
+      <c r="F890" t="s">
+        <v>11</v>
+      </c>
+      <c r="G890" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E891" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F891" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G891" s="2" t="e">
-        <v>#REF!</v>
+      <c r="A891" t="s">
+        <v>747</v>
+      </c>
+      <c r="B891" t="s">
+        <v>22</v>
+      </c>
+      <c r="C891">
+        <v>6673231404</v>
+      </c>
+      <c r="D891" t="s">
+        <v>9</v>
+      </c>
+      <c r="E891" t="s">
+        <v>10</v>
+      </c>
+      <c r="F891" t="s">
+        <v>11</v>
+      </c>
+      <c r="G891" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E892" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F892" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G892" s="2" t="e">
-        <v>#REF!</v>
+      <c r="A892" t="s">
+        <v>748</v>
+      </c>
+      <c r="B892" t="s">
+        <v>22</v>
+      </c>
+      <c r="C892">
+        <v>6686024229</v>
+      </c>
+      <c r="D892" t="s">
+        <v>9</v>
+      </c>
+      <c r="E892" t="s">
+        <v>10</v>
+      </c>
+      <c r="F892" t="s">
+        <v>11</v>
+      </c>
+      <c r="G892" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.3">

--- a/URS_Certifications-2.xlsx
+++ b/URS_Certifications-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A19988-CB8D-4EC4-A56B-BF69C3C5604F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6477971A-3B45-45DA-ACDB-7F5B1F29442E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5743" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5732" uniqueCount="744">
   <si>
     <t>Название компании</t>
   </si>
@@ -2273,21 +2273,6 @@
   </si>
   <si>
     <t>Ltd</t>
-  </si>
-  <si>
-    <t>17.04.2026</t>
-  </si>
-  <si>
-    <t>14.05.2027</t>
-  </si>
-  <si>
-    <t>СП ММП</t>
-  </si>
-  <si>
-    <t>Уральский институт сварки - металлургия</t>
-  </si>
-  <si>
-    <t>Производстеный комплекс Нижнетагильский машиностроительный завод</t>
   </si>
 </sst>
 </file>
@@ -2623,8 +2608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A872" workbookViewId="0">
-      <selection activeCell="D887" sqref="D887"/>
+    <sheetView tabSelected="1" topLeftCell="A930" workbookViewId="0">
+      <selection activeCell="C1288" sqref="C1288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21253,118 +21238,94 @@
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A888" t="s">
+      <c r="A888" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C888" s="2">
+        <v>5837005613</v>
+      </c>
+      <c r="D888" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E888" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F888" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G888" s="2" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A889" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B888" t="s">
+      <c r="B889" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C888">
+      <c r="C889" s="2">
         <v>7708709686</v>
       </c>
-      <c r="D888" t="s">
-        <v>9</v>
-      </c>
-      <c r="E888" t="s">
-        <v>10</v>
-      </c>
-      <c r="F888" t="s">
-        <v>11</v>
-      </c>
-      <c r="G888" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A889" t="s">
+      <c r="D889" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E889" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F889" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G889" s="3">
+        <v>46129</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A890" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B889" t="s">
+      <c r="B890" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C889">
+      <c r="C890" s="2">
         <v>6660016255</v>
       </c>
-      <c r="D889" t="s">
-        <v>9</v>
-      </c>
-      <c r="E889" t="s">
-        <v>10</v>
-      </c>
-      <c r="F889" t="s">
-        <v>11</v>
-      </c>
-      <c r="G889" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A890" t="s">
-        <v>746</v>
-      </c>
-      <c r="B890" t="s">
-        <v>22</v>
-      </c>
-      <c r="C890">
-        <v>6686024229</v>
-      </c>
-      <c r="D890" t="s">
-        <v>9</v>
-      </c>
-      <c r="E890" t="s">
-        <v>10</v>
-      </c>
-      <c r="F890" t="s">
-        <v>11</v>
-      </c>
-      <c r="G890" t="s">
-        <v>745</v>
+      <c r="D890" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E890" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F890" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G890" s="3">
+        <v>46521</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A891" t="s">
-        <v>747</v>
-      </c>
-      <c r="B891" t="s">
-        <v>22</v>
-      </c>
-      <c r="C891">
-        <v>6673231404</v>
-      </c>
-      <c r="D891" t="s">
-        <v>9</v>
-      </c>
-      <c r="E891" t="s">
-        <v>10</v>
-      </c>
-      <c r="F891" t="s">
-        <v>11</v>
-      </c>
-      <c r="G891" t="s">
-        <v>745</v>
+      <c r="E891" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F891" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G891" s="2" t="e">
+        <v>#REF!</v>
       </c>
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A892" t="s">
-        <v>748</v>
-      </c>
-      <c r="B892" t="s">
-        <v>22</v>
-      </c>
-      <c r="C892">
-        <v>6686024229</v>
-      </c>
-      <c r="D892" t="s">
-        <v>9</v>
-      </c>
-      <c r="E892" t="s">
-        <v>10</v>
-      </c>
-      <c r="F892" t="s">
-        <v>11</v>
-      </c>
-      <c r="G892" t="s">
-        <v>745</v>
+      <c r="E892" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F892" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G892" s="2" t="e">
+        <v>#REF!</v>
       </c>
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.3">

--- a/URS_Certifications-2.xlsx
+++ b/URS_Certifications-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A714A55F-F016-4B21-B23A-56CA977A27B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DE8CBE-F546-433B-8DCC-1A0FEC0A2894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5759" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5744" uniqueCount="745">
   <si>
     <t>Название компании</t>
   </si>
@@ -2273,9 +2273,6 @@
   </si>
   <si>
     <t>Ltd</t>
-  </si>
-  <si>
-    <t>Федеральное агентство по техническому регулированию и метрологии РФ (РОССТАНДАРТ)</t>
   </si>
   <si>
     <t>07.11.2027</t>
@@ -2614,8 +2611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="I213" sqref="I213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4100,7 +4097,7 @@
         <v>4703116239</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>744</v>
+        <v>691</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
@@ -4109,7 +4106,7 @@
         <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4123,7 +4120,7 @@
         <v>4703116239</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>744</v>
+        <v>691</v>
       </c>
       <c r="E66" t="s">
         <v>24</v>
@@ -4132,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -7315,73 +7312,13 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215" s="2">
-        <v>4703116239</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" s="3">
-        <v>46564</v>
-      </c>
+      <c r="G215" s="3"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="2">
-        <v>4703116239</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G216" s="3">
-        <v>45814</v>
-      </c>
+      <c r="G216" s="3"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C217" s="2">
-        <v>4703116239</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" s="3">
-        <v>46659</v>
-      </c>
+      <c r="G217" s="3"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">

--- a/URS_Certifications-2.xlsx
+++ b/URS_Certifications-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DE8CBE-F546-433B-8DCC-1A0FEC0A2894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85668D35-D6FA-44D5-84CD-4F30955243F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5744" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5745" uniqueCount="746">
   <si>
     <t>Название компании</t>
   </si>
@@ -2276,6 +2276,9 @@
   </si>
   <si>
     <t>07.11.2027</t>
+  </si>
+  <si>
+    <t>26.06.2027</t>
   </si>
 </sst>
 </file>
@@ -2611,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="I213" sqref="I213"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3972,26 +3975,26 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="2">
         <v>4703116239</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="3">
-        <v>45604</v>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -4008,7 +4011,7 @@
         <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>11</v>
@@ -4031,13 +4034,13 @@
         <v>9</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="3">
-        <v>46564</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">

--- a/URS_Certifications-2.xlsx
+++ b/URS_Certifications-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85668D35-D6FA-44D5-84CD-4F30955243F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8506426F-7A13-4BDA-8010-2A5032FEEA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5745" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="751">
   <si>
     <t>Название компании</t>
   </si>
@@ -2279,6 +2279,21 @@
   </si>
   <si>
     <t>26.06.2027</t>
+  </si>
+  <si>
+    <t>08.11.2024</t>
+  </si>
+  <si>
+    <t>16949: 2016</t>
+  </si>
+  <si>
+    <t>06.06.2025</t>
+  </si>
+  <si>
+    <t>Федеральное агентство по техническому регулированию и метрологии РФ (РОССТАНДАРТ)</t>
+  </si>
+  <si>
+    <t>29.09.2027</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2331,6 +2346,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2614,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2626,7 +2647,7 @@
     <col min="4" max="4" width="23.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="29" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="15.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2648,7 +2669,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3975,25 +3996,25 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="2">
         <v>4703116239</v>
       </c>
-      <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="D60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>745</v>
       </c>
     </row>
@@ -4016,8 +4037,8 @@
       <c r="F61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="3">
-        <v>45604</v>
+      <c r="G61" s="3" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -4039,8 +4060,8 @@
       <c r="F62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="3">
-        <v>45604</v>
+      <c r="G62" s="3" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -4057,13 +4078,13 @@
         <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="3">
-        <v>45814</v>
+      <c r="G63" s="3" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -4077,7 +4098,7 @@
         <v>4703116239</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>691</v>
+        <v>749</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>13</v>
@@ -4085,53 +4106,53 @@
       <c r="F64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="3">
-        <v>46659</v>
+      <c r="G64" s="3" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="2">
         <v>4703116239</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="E65" t="s">
+        <v>749</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="F65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="2">
         <v>4703116239</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="E66" t="s">
+        <v>749</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="F66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>744</v>
       </c>
     </row>
@@ -7314,15 +7335,6 @@
         <v>45985</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G215" s="3"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G216" s="3"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G217" s="3"/>
-    </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>697</v>
@@ -19043,7 +19055,7 @@
       <c r="F761" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G761" s="2" t="s">
+      <c r="G761" s="3" t="s">
         <v>389</v>
       </c>
     </row>
@@ -19345,7 +19357,7 @@
       <c r="F780" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G780" s="2" t="s">
+      <c r="G780" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -19962,7 +19974,7 @@
       <c r="F820" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G820" s="2" t="e">
+      <c r="G820" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -20224,7 +20236,7 @@
       <c r="F834" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G834" s="2" t="e">
+      <c r="G834" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -20238,7 +20250,7 @@
       <c r="F835" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G835" s="2" t="e">
+      <c r="G835" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -20297,7 +20309,7 @@
       <c r="F839" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G839" s="2" t="e">
+      <c r="G839" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -20357,7 +20369,7 @@
       <c r="F842" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G842" s="2" t="e">
+      <c r="G842" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -20861,7 +20873,7 @@
       <c r="F869" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G869" s="2" t="e">
+      <c r="G869" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21088,7 +21100,7 @@
       <c r="F882" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G882" s="5" t="s">
+      <c r="G882" s="6" t="s">
         <v>462</v>
       </c>
     </row>
@@ -21134,7 +21146,7 @@
       <c r="F884" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G884" s="2" t="e">
+      <c r="G884" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21203,7 +21215,7 @@
       <c r="F887" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G887" s="2" t="e">
+      <c r="G887" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21226,7 +21238,7 @@
       <c r="F888" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G888" s="2" t="e">
+      <c r="G888" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21249,7 +21261,7 @@
       <c r="F889" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G889" s="2" t="e">
+      <c r="G889" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21283,7 +21295,7 @@
       <c r="F891" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="G891" s="2" t="e">
+      <c r="G891" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21294,7 +21306,7 @@
       <c r="F892" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="G892" s="2" t="e">
+      <c r="G892" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21317,7 +21329,7 @@
       <c r="F893" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G893" s="2" t="e">
+      <c r="G893" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21374,7 +21386,7 @@
       <c r="F896" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G896" s="2" t="e">
+      <c r="G896" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21385,7 +21397,7 @@
       <c r="F897" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G897" s="2" t="e">
+      <c r="G897" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21396,7 +21408,7 @@
       <c r="F898" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G898" s="2" t="e">
+      <c r="G898" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21407,7 +21419,7 @@
       <c r="F899" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G899" s="2" t="e">
+      <c r="G899" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21418,7 +21430,7 @@
       <c r="F900" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G900" s="2" t="e">
+      <c r="G900" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21429,7 +21441,7 @@
       <c r="F901" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G901" s="2" t="e">
+      <c r="G901" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21440,7 +21452,7 @@
       <c r="F902" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G902" s="2" t="e">
+      <c r="G902" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21451,7 +21463,7 @@
       <c r="F903" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G903" s="2" t="e">
+      <c r="G903" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21462,7 +21474,7 @@
       <c r="F904" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G904" s="2" t="e">
+      <c r="G904" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21473,7 +21485,7 @@
       <c r="F905" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G905" s="2" t="e">
+      <c r="G905" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21484,7 +21496,7 @@
       <c r="F906" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G906" s="2" t="e">
+      <c r="G906" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21495,7 +21507,7 @@
       <c r="F907" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G907" s="2" t="e">
+      <c r="G907" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21506,7 +21518,7 @@
       <c r="F908" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G908" s="2" t="e">
+      <c r="G908" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21517,7 +21529,7 @@
       <c r="F909" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G909" s="2" t="e">
+      <c r="G909" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21565,7 +21577,7 @@
       <c r="F912" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G912" s="2" t="e">
+      <c r="G912" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21576,7 +21588,7 @@
       <c r="F913" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G913" s="2" t="e">
+      <c r="G913" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21587,7 +21599,7 @@
       <c r="F914" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G914" s="2" t="e">
+      <c r="G914" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21598,7 +21610,7 @@
       <c r="F915" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G915" s="2" t="e">
+      <c r="G915" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21683,7 +21695,7 @@
       <c r="F920" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G920" s="2" t="e">
+      <c r="G920" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21717,7 +21729,7 @@
       <c r="F922" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G922" s="2" t="e">
+      <c r="G922" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21791,7 +21803,7 @@
       <c r="F926" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G926" s="2" t="s">
+      <c r="G926" s="3" t="s">
         <v>481</v>
       </c>
     </row>
@@ -21802,7 +21814,7 @@
       <c r="F927" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G927" s="2" t="e">
+      <c r="G927" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21813,7 +21825,7 @@
       <c r="F928" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G928" s="2" t="e">
+      <c r="G928" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21852,7 +21864,7 @@
       <c r="F931" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G931" s="2" t="e">
+      <c r="G931" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -21903,7 +21915,7 @@
       <c r="F934" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G934" s="2" t="s">
+      <c r="G934" s="3" t="s">
         <v>481</v>
       </c>
     </row>
@@ -22159,7 +22171,7 @@
       <c r="F948" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G948" s="2" t="e">
+      <c r="G948" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22182,7 +22194,7 @@
       <c r="F949" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G949" s="2" t="e">
+      <c r="G949" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22219,7 +22231,7 @@
       <c r="F951" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G951" s="2" t="e">
+      <c r="G951" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22230,7 +22242,7 @@
       <c r="F952" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G952" s="2" t="e">
+      <c r="G952" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22241,7 +22253,7 @@
       <c r="F953" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G953" s="2" t="e">
+      <c r="G953" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22264,7 +22276,7 @@
       <c r="F954" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G954" s="2" t="s">
+      <c r="G954" s="3" t="s">
         <v>492</v>
       </c>
     </row>
@@ -22287,7 +22299,7 @@
       <c r="F955" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G955" s="2" t="e">
+      <c r="G955" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22349,7 +22361,7 @@
       <c r="F959" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G959" s="2" t="e">
+      <c r="G959" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22360,7 +22372,7 @@
       <c r="F960" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G960" s="2" t="e">
+      <c r="G960" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22371,7 +22383,7 @@
       <c r="F961" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G961" s="2" t="e">
+      <c r="G961" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22382,7 +22394,7 @@
       <c r="F962" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G962" s="2" t="e">
+      <c r="G962" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22393,7 +22405,7 @@
       <c r="F963" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G963" s="2" t="e">
+      <c r="G963" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22404,7 +22416,7 @@
       <c r="F964" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G964" s="2" t="e">
+      <c r="G964" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22415,7 +22427,7 @@
       <c r="F965" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G965" s="2" t="e">
+      <c r="G965" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22426,7 +22438,7 @@
       <c r="F966" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G966" s="2" t="e">
+      <c r="G966" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22437,7 +22449,7 @@
       <c r="F967" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G967" s="2" t="e">
+      <c r="G967" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22448,7 +22460,7 @@
       <c r="F968" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G968" s="2" t="e">
+      <c r="G968" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22459,7 +22471,7 @@
       <c r="F969" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G969" s="2" t="e">
+      <c r="G969" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22470,7 +22482,7 @@
       <c r="F970" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G970" s="2" t="e">
+      <c r="G970" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22495,7 +22507,7 @@
       <c r="F972" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G972" s="2" t="e">
+      <c r="G972" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22529,7 +22541,7 @@
       <c r="F974" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G974" s="2" t="e">
+      <c r="G974" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22540,7 +22552,7 @@
       <c r="F975" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G975" s="2" t="e">
+      <c r="G975" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22805,7 +22817,7 @@
       <c r="F989" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G989" s="2" t="e">
+      <c r="G989" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22816,7 +22828,7 @@
       <c r="F990" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G990" s="2" t="e">
+      <c r="G990" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -22996,7 +23008,7 @@
       <c r="F999" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G999" s="2" t="e">
+      <c r="G999" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -23720,7 +23732,7 @@
       <c r="F1043" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G1043" s="2" t="e">
+      <c r="G1043" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -23731,7 +23743,7 @@
       <c r="F1044" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G1044" s="2" t="e">
+      <c r="G1044" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -23742,7 +23754,7 @@
       <c r="F1045" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G1045" s="2" t="e">
+      <c r="G1045" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -23753,7 +23765,7 @@
       <c r="F1046" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G1046" s="2" t="e">
+      <c r="G1046" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -23764,7 +23776,7 @@
       <c r="F1047" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G1047" s="2" t="e">
+      <c r="G1047" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -23775,7 +23787,7 @@
       <c r="F1048" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G1048" s="2" t="e">
+      <c r="G1048" s="3" t="e">
         <v>#REF!</v>
       </c>
     </row>
@@ -25994,7 +26006,7 @@
       <c r="F1169" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G1169" s="2" t="s">
+      <c r="G1169" s="3" t="s">
         <v>585</v>
       </c>
     </row>
@@ -27679,7 +27691,7 @@
       <c r="F1269" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1269" s="2" t="s">
+      <c r="G1269" s="3" t="s">
         <v>713</v>
       </c>
     </row>
@@ -28841,7 +28853,7 @@
       <c r="F1329" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1329" s="2" t="s">
+      <c r="G1329" s="3" t="s">
         <v>715</v>
       </c>
     </row>
@@ -28878,7 +28890,7 @@
       <c r="F1331" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="G1331" s="2" t="s">
+      <c r="G1331" s="3" t="s">
         <v>720</v>
       </c>
     </row>
@@ -28923,7 +28935,7 @@
       <c r="F1334" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1334" s="2" t="s">
+      <c r="G1334" s="3" t="s">
         <v>724</v>
       </c>
     </row>
@@ -28960,7 +28972,7 @@
       <c r="F1336" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1336" s="2" t="s">
+      <c r="G1336" s="3" t="s">
         <v>727</v>
       </c>
     </row>
@@ -28980,7 +28992,7 @@
       <c r="F1337" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1337" s="2" t="s">
+      <c r="G1337" s="3" t="s">
         <v>729</v>
       </c>
     </row>
@@ -29048,7 +29060,7 @@
       <c r="F1341" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1341" s="2" t="s">
+      <c r="G1341" s="3" t="s">
         <v>735</v>
       </c>
     </row>
@@ -29068,7 +29080,7 @@
       <c r="F1342" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1342" s="2" t="s">
+      <c r="G1342" s="3" t="s">
         <v>737</v>
       </c>
     </row>
@@ -29088,7 +29100,7 @@
       <c r="F1343" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1343" s="2" t="s">
+      <c r="G1343" s="3" t="s">
         <v>739</v>
       </c>
     </row>

--- a/URS_Certifications-2.xlsx
+++ b/URS_Certifications-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8506426F-7A13-4BDA-8010-2A5032FEEA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A86E95-495C-4608-9D63-BE8FB8BEEB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="750">
   <si>
     <t>Название компании</t>
   </si>
@@ -2288,9 +2288,6 @@
   </si>
   <si>
     <t>06.06.2025</t>
-  </si>
-  <si>
-    <t>Федеральное агентство по техническому регулированию и метрологии РФ (РОССТАНДАРТ)</t>
   </si>
   <si>
     <t>29.09.2027</t>
@@ -2635,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4098,7 +4095,7 @@
         <v>4703116239</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>749</v>
+        <v>691</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>13</v>
@@ -4107,7 +4104,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -4121,7 +4118,7 @@
         <v>4703116239</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>749</v>
+        <v>691</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>14</v>
@@ -4144,7 +4141,7 @@
         <v>4703116239</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>749</v>
+        <v>691</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>24</v>

--- a/URS_Certifications-2.xlsx
+++ b/URS_Certifications-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A86E95-495C-4608-9D63-BE8FB8BEEB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4327AB6A-0B69-4245-80E3-111ED6E89F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2633,7 +2633,7 @@
   <dimension ref="A1:G1345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
